--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Nguyen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{771D33A0-B82C-416F-8358-AE0336576B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{325FFD0A-0CC1-4A7F-8E2C-A68D0486757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="B1:BO19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1"/>
@@ -1331,7 +1331,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5" s="6">
         <v>10</v>
@@ -1351,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E6" s="6">
         <v>11</v>
@@ -1371,7 +1371,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E7" s="6">
         <v>12</v>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -1407,7 +1407,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E9" s="6">
         <v>9</v>
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="6">
         <v>6</v>
@@ -1447,7 +1447,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6">
         <v>11</v>
@@ -1467,7 +1467,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="6">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E12" s="6">
         <v>12</v>
@@ -1487,7 +1487,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -1503,7 +1503,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="6">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1536,15 +1536,19 @@
         <v>26</v>
       </c>
       <c r="C16" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1">
@@ -1555,7 +1559,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="6">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -1568,15 +1572,19 @@
         <v>28</v>
       </c>
       <c r="C18" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
       <c r="G18" s="7">
-        <v>0.13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
@@ -1587,7 +1595,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="6">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E19" s="6">
         <v>9</v>

--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24722"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Nguyen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willig\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{325FFD0A-0CC1-4A7F-8E2C-A68D0486757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D68D0C-F02E-4EF9-8F60-41D632B98604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -571,9 +571,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -586,29 +607,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1012,20 +1012,20 @@
   </sheetPr>
   <dimension ref="B1:BO19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="2.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.625" style="1"/>
+    <col min="1" max="1" width="2.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.58203125" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1035,14 +1035,14 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1050,66 +1050,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="25"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="25"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="29"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="34"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="29"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="34"/>
       <c r="AH2" s="19"/>
-      <c r="AI2" s="27" t="s">
+      <c r="AI2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-    </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="40.15" customHeight="1" thickTop="1">
-      <c r="B3" s="30" t="s">
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+    </row>
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="40.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1135,13 +1135,13 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1">
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1">
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>16</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="21" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1">
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="21" t="s">
         <v>20</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="21" t="s">
         <v>21</v>
       </c>
@@ -1456,10 +1456,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="7">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="21" t="s">
         <v>22</v>
       </c>
@@ -1476,10 +1476,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="7">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>23</v>
       </c>
@@ -1489,13 +1489,17 @@
       <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="6">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
       <c r="G13" s="7">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="21" t="s">
         <v>24</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="21" t="s">
         <v>25</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="21" t="s">
         <v>26</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="21" t="s">
         <v>27</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="21" t="s">
         <v>28</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="21" t="s">
         <v>29</v>
       </c>
